--- a/data/trans_dic/IP34-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP34-Edad-trans_dic.xlsx
@@ -730,7 +730,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -793,54 +793,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>0; 0,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0; 0,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>0; 0,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0; 0,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,47 +903,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0; 0,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0; 0,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0; 0,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0; 0,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>0; 0,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 0,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0; 0,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,2</t>
         </is>
       </c>
     </row>
